--- a/data/CS5/Shared ESS/CS5_ESS.xlsx
+++ b/data/CS5/Shared ESS/CS5_ESS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS4\Shared ESS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178934C9-10F8-4E3F-814D-9BD5536CE2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9638EB6-BED1-43BA-998A-16AA39C55B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9960" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="81" r:id="rId1"/>
@@ -485,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E7A88E-2477-46FD-BE5E-2BB647C1CD4A}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7614B8E9-E001-4C19-AEEE-8FBC4B48A529}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,16 +526,20 @@
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="4">
+        <f>C2*100</f>
+        <v>108.19000000000001</v>
+      </c>
+      <c r="C2">
         <v>1.0819000000000001</v>
       </c>
     </row>
@@ -1051,7 +1055,7 @@
   <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,127 +1167,127 @@
       </c>
       <c r="B2" s="3">
         <f>'Investment Cost NREL, USD'!B2/'Conversion rate'!$B$2</f>
-        <v>1467.0967741935483</v>
+        <v>14.670967741935481</v>
       </c>
       <c r="C2" s="2">
         <f>'Investment Cost NREL, USD'!C2/'Conversion rate'!$B$2</f>
-        <v>1467.0967741935483</v>
+        <v>14.670967741935481</v>
       </c>
       <c r="D2" s="2">
         <f>'Investment Cost NREL, USD'!D2/'Conversion rate'!$B$2</f>
-        <v>1648.9509196783436</v>
+        <v>16.489509196783434</v>
       </c>
       <c r="E2" s="2">
         <f>'Investment Cost NREL, USD'!E2/'Conversion rate'!$B$2</f>
-        <v>1186.2547370366947</v>
+        <v>11.862547370366947</v>
       </c>
       <c r="F2" s="2">
         <f>'Investment Cost NREL, USD'!F2/'Conversion rate'!$B$2</f>
-        <v>1119.66817635641</v>
+        <v>11.196681763564099</v>
       </c>
       <c r="G2" s="2">
         <f>'Investment Cost NREL, USD'!G2/'Conversion rate'!$B$2</f>
-        <v>1062.702652740549</v>
+        <v>10.627026527405489</v>
       </c>
       <c r="H2" s="2">
         <f>'Investment Cost NREL, USD'!H2/'Conversion rate'!$B$2</f>
-        <v>1017.5949718088547</v>
+        <v>10.175949718088546</v>
       </c>
       <c r="I2" s="2">
         <f>'Investment Cost NREL, USD'!I2/'Conversion rate'!$B$2</f>
-        <v>972.48729087716049</v>
+        <v>9.724872908771605</v>
       </c>
       <c r="J2" s="2">
         <f>'Investment Cost NREL, USD'!J2/'Conversion rate'!$B$2</f>
-        <v>927.3796099454662</v>
+        <v>9.2737960994546622</v>
       </c>
       <c r="K2" s="2">
         <f>'Investment Cost NREL, USD'!K2/'Conversion rate'!$B$2</f>
-        <v>882.27008041408624</v>
+        <v>8.8227008041408617</v>
       </c>
       <c r="L2" s="2">
         <f>'Investment Cost NREL, USD'!L2/'Conversion rate'!$B$2</f>
-        <v>837.1771882798779</v>
+        <v>8.3717718827987788</v>
       </c>
       <c r="M2" s="2">
         <f>'Investment Cost NREL, USD'!M2/'Conversion rate'!$B$2</f>
-        <v>822.49838247527487</v>
+        <v>8.2249838247527496</v>
       </c>
       <c r="N2" s="2">
         <f>'Investment Cost NREL, USD'!N2/'Conversion rate'!$B$2</f>
-        <v>807.81957667067195</v>
+        <v>8.0781957667067186</v>
       </c>
       <c r="O2" s="2">
         <f>'Investment Cost NREL, USD'!O2/'Conversion rate'!$B$2</f>
-        <v>793.12690636842581</v>
+        <v>7.9312690636842582</v>
       </c>
       <c r="P2" s="2">
         <f>'Investment Cost NREL, USD'!P2/'Conversion rate'!$B$2</f>
-        <v>778.44902486366561</v>
+        <v>7.7844902486366561</v>
       </c>
       <c r="Q2" s="2">
         <f>'Investment Cost NREL, USD'!Q2/'Conversion rate'!$B$2</f>
-        <v>763.78593215639148</v>
+        <v>7.6378593215639148</v>
       </c>
       <c r="R2" s="2">
         <f>'Investment Cost NREL, USD'!R2/'Conversion rate'!$B$2</f>
-        <v>749.0923375543025</v>
+        <v>7.4909233755430256</v>
       </c>
       <c r="S2" s="2">
         <f>'Investment Cost NREL, USD'!S2/'Conversion rate'!$B$2</f>
-        <v>734.41445604954242</v>
+        <v>7.3441445604954234</v>
       </c>
       <c r="T2" s="2">
         <f>'Investment Cost NREL, USD'!T2/'Conversion rate'!$B$2</f>
-        <v>719.73565024493939</v>
+        <v>7.1973565024493942</v>
       </c>
       <c r="U2" s="2">
         <f>'Investment Cost NREL, USD'!U2/'Conversion rate'!$B$2</f>
-        <v>705.05776874017931</v>
+        <v>7.0505776874017929</v>
       </c>
       <c r="V2" s="2">
         <f>'Investment Cost NREL, USD'!V2/'Conversion rate'!$B$2</f>
-        <v>690.36417413809033</v>
+        <v>6.9036417413809028</v>
       </c>
       <c r="W2" s="2">
         <f>'Investment Cost NREL, USD'!W2/'Conversion rate'!$B$2</f>
-        <v>675.68629263333014</v>
+        <v>6.7568629263333015</v>
       </c>
       <c r="X2" s="2">
         <f>'Investment Cost NREL, USD'!X2/'Conversion rate'!$B$2</f>
-        <v>661.0231999260559</v>
+        <v>6.6102319992605585</v>
       </c>
       <c r="Y2" s="2">
         <f>'Investment Cost NREL, USD'!Y2/'Conversion rate'!$B$2</f>
-        <v>646.34531842129581</v>
+        <v>6.4634531842129572</v>
       </c>
       <c r="Z2" s="2">
         <f>'Investment Cost NREL, USD'!Z2/'Conversion rate'!$B$2</f>
-        <v>631.65172381920695</v>
+        <v>6.3165172381920689</v>
       </c>
       <c r="AA2" s="2">
         <f>'Investment Cost NREL, USD'!AA2/'Conversion rate'!$B$2</f>
-        <v>616.97291801460392</v>
+        <v>6.1697291801460388</v>
       </c>
       <c r="AB2" s="2">
         <f>'Investment Cost NREL, USD'!AB2/'Conversion rate'!$B$2</f>
-        <v>602.29503650984384</v>
+        <v>6.0229503650984375</v>
       </c>
       <c r="AC2" s="2">
         <f>'Investment Cost NREL, USD'!AC2/'Conversion rate'!$B$2</f>
-        <v>587.6162307052407</v>
+        <v>5.8761623070524065</v>
       </c>
       <c r="AD2" s="2">
         <f>'Investment Cost NREL, USD'!AD2/'Conversion rate'!$B$2</f>
-        <v>572.92263610315183</v>
+        <v>5.7292263610315182</v>
       </c>
       <c r="AE2" s="2">
         <f>'Investment Cost NREL, USD'!AE2/'Conversion rate'!$B$2</f>
-        <v>558.24475459839175</v>
+        <v>5.5824475459839169</v>
       </c>
       <c r="AF2" s="2">
         <f>'Investment Cost NREL, USD'!AF2/'Conversion rate'!$B$2</f>
-        <v>543.58258619096023</v>
+        <v>5.4358258619096027</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
@@ -1292,127 +1296,127 @@
       </c>
       <c r="B3" s="3">
         <f>'Investment Cost NREL, USD'!B3/'Conversion rate'!$B$2</f>
-        <v>1467.0967741935483</v>
+        <v>14.670967741935481</v>
       </c>
       <c r="C3" s="2">
         <f>'Investment Cost NREL, USD'!C3/'Conversion rate'!$B$2</f>
-        <v>1467.0967741935483</v>
+        <v>14.670967741935481</v>
       </c>
       <c r="D3" s="2">
         <f>'Investment Cost NREL, USD'!D3/'Conversion rate'!$B$2</f>
-        <v>1648.9509196783436</v>
+        <v>16.489509196783434</v>
       </c>
       <c r="E3" s="2">
         <f>'Investment Cost NREL, USD'!E3/'Conversion rate'!$B$2</f>
-        <v>1585.6382290415008</v>
+        <v>15.856382290415008</v>
       </c>
       <c r="F3" s="2">
         <f>'Investment Cost NREL, USD'!F3/'Conversion rate'!$B$2</f>
-        <v>1514.7194749976893</v>
+        <v>15.147194749976892</v>
       </c>
       <c r="G3" s="2">
         <f>'Investment Cost NREL, USD'!G3/'Conversion rate'!$B$2</f>
-        <v>1327.45817543211</v>
+        <v>13.274581754321099</v>
       </c>
       <c r="H3" s="2">
         <f>'Investment Cost NREL, USD'!H3/'Conversion rate'!$B$2</f>
-        <v>1284.516129032258</v>
+        <v>12.845161290322579</v>
       </c>
       <c r="I3" s="2">
         <f>'Investment Cost NREL, USD'!I3/'Conversion rate'!$B$2</f>
-        <v>1241.5713097328774</v>
+        <v>12.415713097328773</v>
       </c>
       <c r="J3" s="2">
         <f>'Investment Cost NREL, USD'!J3/'Conversion rate'!$B$2</f>
-        <v>1198.6227932341251</v>
+        <v>11.986227932341249</v>
       </c>
       <c r="K3" s="2">
         <f>'Investment Cost NREL, USD'!K3/'Conversion rate'!$B$2</f>
-        <v>1155.6705795360012</v>
+        <v>11.556705795360013</v>
       </c>
       <c r="L3" s="2">
         <f>'Investment Cost NREL, USD'!L3/'Conversion rate'!$B$2</f>
-        <v>1112.7137443386634</v>
+        <v>11.127137443386633</v>
       </c>
       <c r="M3" s="2">
         <f>'Investment Cost NREL, USD'!M3/'Conversion rate'!$B$2</f>
-        <v>1095.5522691561141</v>
+        <v>10.955522691561141</v>
       </c>
       <c r="N3" s="2">
         <f>'Investment Cost NREL, USD'!N3/'Conversion rate'!$B$2</f>
-        <v>1078.3917182734078</v>
+        <v>10.783917182734077</v>
       </c>
       <c r="O3" s="2">
         <f>'Investment Cost NREL, USD'!O3/'Conversion rate'!$B$2</f>
-        <v>1061.2311673907013</v>
+        <v>10.612311673907014</v>
       </c>
       <c r="P3" s="2">
         <f>'Investment Cost NREL, USD'!P3/'Conversion rate'!$B$2</f>
-        <v>1044.0706165079951</v>
+        <v>10.44070616507995</v>
       </c>
       <c r="Q3" s="2">
         <f>'Investment Cost NREL, USD'!Q3/'Conversion rate'!$B$2</f>
-        <v>1026.9119142249747</v>
+        <v>10.269119142249746</v>
       </c>
       <c r="R3" s="2">
         <f>'Investment Cost NREL, USD'!R3/'Conversion rate'!$B$2</f>
-        <v>1009.7532119419539</v>
+        <v>10.097532119419538</v>
       </c>
       <c r="S3" s="2">
         <f>'Investment Cost NREL, USD'!S3/'Conversion rate'!$B$2</f>
-        <v>992.59450965893325</v>
+        <v>9.9259450965893326</v>
       </c>
       <c r="T3" s="2">
         <f>'Investment Cost NREL, USD'!T3/'Conversion rate'!$B$2</f>
-        <v>975.43765597559843</v>
+        <v>9.7543765597559844</v>
       </c>
       <c r="U3" s="2">
         <f>'Investment Cost NREL, USD'!U3/'Conversion rate'!$B$2</f>
-        <v>958.28080229226339</v>
+        <v>9.5828080229226344</v>
       </c>
       <c r="V3" s="2">
         <f>'Investment Cost NREL, USD'!V3/'Conversion rate'!$B$2</f>
-        <v>941.12487290877152</v>
+        <v>9.4112487290877151</v>
       </c>
       <c r="W3" s="2">
         <f>'Investment Cost NREL, USD'!W3/'Conversion rate'!$B$2</f>
-        <v>923.96986782512238</v>
+        <v>9.2396986782512247</v>
       </c>
       <c r="X3" s="2">
         <f>'Investment Cost NREL, USD'!X3/'Conversion rate'!$B$2</f>
-        <v>906.81578704131607</v>
+        <v>9.0681578704131613</v>
       </c>
       <c r="Y3" s="2">
         <f>'Investment Cost NREL, USD'!Y3/'Conversion rate'!$B$2</f>
-        <v>889.66263055735271</v>
+        <v>8.8966263055735268</v>
       </c>
       <c r="Z3" s="2">
         <f>'Investment Cost NREL, USD'!Z3/'Conversion rate'!$B$2</f>
-        <v>872.50947407338936</v>
+        <v>8.7250947407338924</v>
       </c>
       <c r="AA3" s="2">
         <f>'Investment Cost NREL, USD'!AA3/'Conversion rate'!$B$2</f>
-        <v>855.35816618911167</v>
+        <v>8.5535816618911173</v>
       </c>
       <c r="AB3" s="2">
         <f>'Investment Cost NREL, USD'!AB3/'Conversion rate'!$B$2</f>
-        <v>838.20685830483399</v>
+        <v>8.3820685830483406</v>
       </c>
       <c r="AC3" s="2">
         <f>'Investment Cost NREL, USD'!AC3/'Conversion rate'!$B$2</f>
-        <v>821.05739902024209</v>
+        <v>8.2105739902024215</v>
       </c>
       <c r="AD3" s="2">
         <f>'Investment Cost NREL, USD'!AD3/'Conversion rate'!$B$2</f>
-        <v>803.90886403549302</v>
+        <v>8.0390886403549313</v>
       </c>
       <c r="AE3" s="2">
         <f>'Investment Cost NREL, USD'!AE3/'Conversion rate'!$B$2</f>
-        <v>786.76125335058691</v>
+        <v>7.8676125335058682</v>
       </c>
       <c r="AF3" s="2">
         <f>'Investment Cost NREL, USD'!AF3/'Conversion rate'!$B$2</f>
-        <v>769.61456696552352</v>
+        <v>7.6961456696552348</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
@@ -1421,127 +1425,127 @@
       </c>
       <c r="B4" s="3">
         <f>'Investment Cost NREL, USD'!B4/'Conversion rate'!$B$2</f>
-        <v>1467.0967741935483</v>
+        <v>14.670967741935481</v>
       </c>
       <c r="C4" s="2">
         <f>'Investment Cost NREL, USD'!C4/'Conversion rate'!$B$2</f>
-        <v>1467.0967741935483</v>
+        <v>14.670967741935481</v>
       </c>
       <c r="D4" s="2">
         <f>'Investment Cost NREL, USD'!D4/'Conversion rate'!$B$2</f>
-        <v>1648.9509196783436</v>
+        <v>16.489509196783434</v>
       </c>
       <c r="E4" s="2">
         <f>'Investment Cost NREL, USD'!E4/'Conversion rate'!$B$2</f>
-        <v>1710.0286532951288</v>
+        <v>17.100286532951287</v>
       </c>
       <c r="F4" s="2">
         <f>'Investment Cost NREL, USD'!F4/'Conversion rate'!$B$2</f>
-        <v>1722.2368056197429</v>
+        <v>17.222368056197428</v>
       </c>
       <c r="G4" s="2">
         <f>'Investment Cost NREL, USD'!G4/'Conversion rate'!$B$2</f>
-        <v>1697.8010906738145</v>
+        <v>16.978010906738145</v>
       </c>
       <c r="H4" s="2">
         <f>'Investment Cost NREL, USD'!H4/'Conversion rate'!$B$2</f>
-        <v>1634.2185044828541</v>
+        <v>16.34218504482854</v>
       </c>
       <c r="I4" s="2">
         <f>'Investment Cost NREL, USD'!I4/'Conversion rate'!$B$2</f>
-        <v>1570.6368425917365</v>
+        <v>15.706368425917365</v>
       </c>
       <c r="J4" s="2">
         <f>'Investment Cost NREL, USD'!J4/'Conversion rate'!$B$2</f>
-        <v>1507.0561050004619</v>
+        <v>15.070561050004619</v>
       </c>
       <c r="K4" s="2">
         <f>'Investment Cost NREL, USD'!K4/'Conversion rate'!$B$2</f>
-        <v>1443.4762917090302</v>
+        <v>14.434762917090302</v>
       </c>
       <c r="L4" s="2">
         <f>'Investment Cost NREL, USD'!L4/'Conversion rate'!$B$2</f>
-        <v>1379.8974027174415</v>
+        <v>13.798974027174415</v>
       </c>
       <c r="M4" s="2">
         <f>'Investment Cost NREL, USD'!M4/'Conversion rate'!$B$2</f>
-        <v>1370.4501340234772</v>
+        <v>13.704501340234771</v>
       </c>
       <c r="N4" s="2">
         <f>'Investment Cost NREL, USD'!N4/'Conversion rate'!$B$2</f>
-        <v>1361.00194102967</v>
+        <v>13.610019410296699</v>
       </c>
       <c r="O4" s="2">
         <f>'Investment Cost NREL, USD'!O4/'Conversion rate'!$B$2</f>
-        <v>1351.5537480358628</v>
+        <v>13.515537480358628</v>
       </c>
       <c r="P4" s="2">
         <f>'Investment Cost NREL, USD'!P4/'Conversion rate'!$B$2</f>
-        <v>1342.1064793418984</v>
+        <v>13.421064793418985</v>
       </c>
       <c r="Q4" s="2">
         <f>'Investment Cost NREL, USD'!Q4/'Conversion rate'!$B$2</f>
-        <v>1332.6582863480912</v>
+        <v>13.326582863480914</v>
       </c>
       <c r="R4" s="2">
         <f>'Investment Cost NREL, USD'!R4/'Conversion rate'!$B$2</f>
-        <v>1323.210093354284</v>
+        <v>13.232100933542839</v>
       </c>
       <c r="S4" s="2">
         <f>'Investment Cost NREL, USD'!S4/'Conversion rate'!$B$2</f>
-        <v>1313.7628246603197</v>
+        <v>13.137628246603196</v>
       </c>
       <c r="T4" s="2">
         <f>'Investment Cost NREL, USD'!T4/'Conversion rate'!$B$2</f>
-        <v>1304.3146316665125</v>
+        <v>13.043146316665124</v>
       </c>
       <c r="U4" s="2">
         <f>'Investment Cost NREL, USD'!U4/'Conversion rate'!$B$2</f>
-        <v>1294.8673629725481</v>
+        <v>12.94867362972548</v>
       </c>
       <c r="V4" s="2">
         <f>'Investment Cost NREL, USD'!V4/'Conversion rate'!$B$2</f>
-        <v>1285.4191699787409</v>
+        <v>12.854191699787409</v>
       </c>
       <c r="W4" s="2">
         <f>'Investment Cost NREL, USD'!W4/'Conversion rate'!$B$2</f>
-        <v>1275.9709769849337</v>
+        <v>12.759709769849337</v>
       </c>
       <c r="X4" s="2">
         <f>'Investment Cost NREL, USD'!X4/'Conversion rate'!$B$2</f>
-        <v>1266.5237082909694</v>
+        <v>12.665237082909695</v>
       </c>
       <c r="Y4" s="2">
         <f>'Investment Cost NREL, USD'!Y4/'Conversion rate'!$B$2</f>
-        <v>1257.0755152971624</v>
+        <v>12.570755152971623</v>
       </c>
       <c r="Z4" s="2">
         <f>'Investment Cost NREL, USD'!Z4/'Conversion rate'!$B$2</f>
-        <v>1247.6273223033552</v>
+        <v>12.47627322303355</v>
       </c>
       <c r="AA4" s="2">
         <f>'Investment Cost NREL, USD'!AA4/'Conversion rate'!$B$2</f>
-        <v>1238.1800536093908</v>
+        <v>12.381800536093907</v>
       </c>
       <c r="AB4" s="2">
         <f>'Investment Cost NREL, USD'!AB4/'Conversion rate'!$B$2</f>
-        <v>1228.7318606155836</v>
+        <v>12.287318606155836</v>
       </c>
       <c r="AC4" s="2">
         <f>'Investment Cost NREL, USD'!AC4/'Conversion rate'!$B$2</f>
-        <v>1219.2836676217764</v>
+        <v>12.192836676217764</v>
       </c>
       <c r="AD4" s="2">
         <f>'Investment Cost NREL, USD'!AD4/'Conversion rate'!$B$2</f>
-        <v>1209.8363989278121</v>
+        <v>12.09836398927812</v>
       </c>
       <c r="AE4" s="2">
         <f>'Investment Cost NREL, USD'!AE4/'Conversion rate'!$B$2</f>
-        <v>1200.3882059340049</v>
+        <v>12.003882059340048</v>
       </c>
       <c r="AF4" s="2">
         <f>'Investment Cost NREL, USD'!AF4/'Conversion rate'!$B$2</f>
-        <v>1190.9400129401977</v>
+        <v>11.909400129401977</v>
       </c>
     </row>
   </sheetData>
@@ -1553,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
   <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AJ4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1691,127 +1695,127 @@
       </c>
       <c r="B2" s="2">
         <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>295670.72712234</v>
+        <v>2956.7072712233994</v>
       </c>
       <c r="C2" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>295670.72712234</v>
+        <v>2956.7072712233994</v>
       </c>
       <c r="D2" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>332320.6253236754</v>
+        <v>3323.206253236754</v>
       </c>
       <c r="E2" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>239071.34609082571</v>
+        <v>2390.7134609082568</v>
       </c>
       <c r="F2" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>225651.85178123059</v>
+        <v>2256.5185178123056</v>
       </c>
       <c r="G2" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>214171.32910223768</v>
+        <v>2141.7132910223763</v>
       </c>
       <c r="H2" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>205080.57172721188</v>
+        <v>2050.8057172721187</v>
       </c>
       <c r="I2" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>195989.81435218608</v>
+        <v>1959.8981435218611</v>
       </c>
       <c r="J2" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>186899.05697716027</v>
+        <v>1868.9905697716028</v>
       </c>
       <c r="K2" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>177807.92704537965</v>
+        <v>1778.079270453796</v>
       </c>
       <c r="L2" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>168720.15012439265</v>
+        <v>1687.2015012439263</v>
       </c>
       <c r="M2" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>165761.86321252867</v>
+        <v>1657.6186321252869</v>
       </c>
       <c r="N2" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>162803.57630066472</v>
+        <v>1628.0357630066471</v>
       </c>
       <c r="O2" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>159842.49521313942</v>
+        <v>1598.4249521313941</v>
       </c>
       <c r="P2" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>156884.39457965287</v>
+        <v>1568.8439457965289</v>
       </c>
       <c r="Q2" s="2">
         <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>153929.27440020515</v>
+        <v>1539.2927440020514</v>
       </c>
       <c r="R2" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>150968.00703430243</v>
+        <v>1509.6800703430242</v>
       </c>
       <c r="S2" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>148009.90640081587</v>
+        <v>1480.0990640081588</v>
       </c>
       <c r="T2" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>145051.61948895192</v>
+        <v>1450.5161948895195</v>
       </c>
       <c r="U2" s="2">
         <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>142093.51885546543</v>
+        <v>1420.9351885546541</v>
       </c>
       <c r="V2" s="2">
         <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>139132.25148956268</v>
+        <v>1391.3225148956267</v>
       </c>
       <c r="W2" s="2">
         <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>136174.15085607613</v>
+        <v>1361.7415085607613</v>
       </c>
       <c r="X2" s="2">
         <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>133219.03067662838</v>
+        <v>1332.1903067662838</v>
       </c>
       <c r="Y2" s="2">
         <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>130260.93004314188</v>
+        <v>1302.6093004314187</v>
       </c>
       <c r="Z2" s="2">
         <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>127299.66267723915</v>
+        <v>1272.9966267723914</v>
       </c>
       <c r="AA2" s="2">
         <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>124341.3757653752</v>
+        <v>1243.4137576537519</v>
       </c>
       <c r="AB2" s="2">
         <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>121383.2751318887</v>
+        <v>1213.8327513188867</v>
       </c>
       <c r="AC2" s="2">
         <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>118424.98822002472</v>
+        <v>1184.2498822002469</v>
       </c>
       <c r="AD2" s="2">
         <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>115463.72085412197</v>
+        <v>1154.6372085412199</v>
       </c>
       <c r="AE2" s="2">
         <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>112505.62022063546</v>
+        <v>1125.0562022063546</v>
       </c>
       <c r="AF2" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>109550.68631956511</v>
+        <v>1095.506863195651</v>
       </c>
       <c r="AG2" s="5">
         <v>109550.68631956511</v>
@@ -1832,127 +1836,127 @@
       </c>
       <c r="B3" s="2">
         <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>295670.72712234</v>
+        <v>2956.7072712233994</v>
       </c>
       <c r="C3" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>295670.72712234</v>
+        <v>2956.7072712233994</v>
       </c>
       <c r="D3" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>332320.6253236754</v>
+        <v>3323.206253236754</v>
       </c>
       <c r="E3" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>319560.92902691476</v>
+        <v>3195.6092902691471</v>
       </c>
       <c r="F3" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>305268.34796233533</v>
+        <v>3052.6834796233538</v>
       </c>
       <c r="G3" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>267528.72125307191</v>
+        <v>2675.287212530719</v>
       </c>
       <c r="H3" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>258874.41411634957</v>
+        <v>2588.7441411634954</v>
       </c>
       <c r="I3" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>250219.54814449497</v>
+        <v>2502.1954814449496</v>
       </c>
       <c r="J3" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>241563.93705913064</v>
+        <v>2415.6393705913065</v>
       </c>
       <c r="K3" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>232907.58086025662</v>
+        <v>2329.0758086025667</v>
       </c>
       <c r="L3" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>224250.2932694956</v>
+        <v>2242.5029326949552</v>
       </c>
       <c r="M3" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>220791.66263587188</v>
+        <v>2207.9166263587185</v>
       </c>
       <c r="N3" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>217333.21828062556</v>
+        <v>2173.3321828062558</v>
       </c>
       <c r="O3" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>213874.77392537927</v>
+        <v>2138.747739253793</v>
       </c>
       <c r="P3" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>210416.32957013301</v>
+        <v>2104.1632957013303</v>
       </c>
       <c r="Q3" s="2">
         <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>206958.25777164166</v>
+        <v>2069.5825777164164</v>
       </c>
       <c r="R3" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>203500.18597315016</v>
+        <v>2035.0018597315016</v>
       </c>
       <c r="S3" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>200042.11417465872</v>
+        <v>2000.4211417465872</v>
       </c>
       <c r="T3" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>196584.41493292214</v>
+        <v>1965.8441493292219</v>
       </c>
       <c r="U3" s="2">
         <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>193126.71569118553</v>
+        <v>1931.2671569118556</v>
       </c>
       <c r="V3" s="2">
         <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>189669.20272782643</v>
+        <v>1896.6920272782638</v>
       </c>
       <c r="W3" s="2">
         <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>186211.8760428447</v>
+        <v>1862.1187604284471</v>
       </c>
       <c r="X3" s="2">
         <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>182754.73563624034</v>
+        <v>1827.5473563624034</v>
       </c>
       <c r="Y3" s="2">
         <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>179297.78150801346</v>
+        <v>1792.9778150801349</v>
       </c>
       <c r="Z3" s="2">
         <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>175840.82737978661</v>
+        <v>1758.4082737978656</v>
       </c>
       <c r="AA3" s="2">
         <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>172384.24580831456</v>
+        <v>1723.8424580831456</v>
       </c>
       <c r="AB3" s="2">
         <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>168927.66423684251</v>
+        <v>1689.276642368425</v>
       </c>
       <c r="AC3" s="2">
         <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>165471.45522212531</v>
+        <v>1654.7145522212534</v>
       </c>
       <c r="AD3" s="2">
         <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>162015.43248578554</v>
+        <v>1620.1543248578555</v>
       </c>
       <c r="AE3" s="2">
         <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>158559.59602782319</v>
+        <v>1585.5959602782316</v>
       </c>
       <c r="AF3" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>155103.94584823828</v>
+        <v>1551.0394584823825</v>
       </c>
       <c r="AG3" s="5">
         <v>155103.94584823828</v>
@@ -1973,127 +1977,127 @@
       </c>
       <c r="B4" s="2">
         <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>295670.72712234</v>
+        <v>2956.7072712233994</v>
       </c>
       <c r="C4" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>295670.72712234</v>
+        <v>2956.7072712233994</v>
       </c>
       <c r="D4" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>332320.6253236754</v>
+        <v>3323.206253236754</v>
       </c>
       <c r="E4" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>344629.90050382598</v>
+        <v>3446.2990050382591</v>
       </c>
       <c r="F4" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>347090.26531283662</v>
+        <v>3470.9026531283666</v>
       </c>
       <c r="G4" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>342165.62384888937</v>
+        <v>3421.6562384888935</v>
       </c>
       <c r="H4" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>329351.53426592099</v>
+        <v>3293.5153426592096</v>
       </c>
       <c r="I4" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>316537.63096132991</v>
+        <v>3165.3763096132989</v>
       </c>
       <c r="J4" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>303723.91393511638</v>
+        <v>3037.2391393511634</v>
       </c>
       <c r="K4" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>290910.38318728027</v>
+        <v>2909.1038318728024</v>
       </c>
       <c r="L4" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>278097.03871782159</v>
+        <v>2780.9703871782158</v>
       </c>
       <c r="M4" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>276193.0874221751</v>
+        <v>2761.9308742217509</v>
       </c>
       <c r="N4" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>274288.94984815124</v>
+        <v>2742.889498481512</v>
       </c>
       <c r="O4" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>272384.81227412733</v>
+        <v>2723.8481227412731</v>
       </c>
       <c r="P4" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>270480.86097848084</v>
+        <v>2704.8086097848091</v>
       </c>
       <c r="Q4" s="2">
         <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>268576.72340445698</v>
+        <v>2685.7672340445702</v>
       </c>
       <c r="R4" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>266672.58583043312</v>
+        <v>2666.7258583043308</v>
       </c>
       <c r="S4" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>264768.63453478657</v>
+        <v>2647.6863453478659</v>
       </c>
       <c r="T4" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>262864.49696076271</v>
+        <v>2628.644969607627</v>
       </c>
       <c r="U4" s="2">
         <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>260960.54566511625</v>
+        <v>2609.6054566511621</v>
       </c>
       <c r="V4" s="2">
         <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>259056.40809109237</v>
+        <v>2590.5640809109236</v>
       </c>
       <c r="W4" s="2">
         <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>257152.27051706851</v>
+        <v>2571.5227051706852</v>
       </c>
       <c r="X4" s="2">
         <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>255248.31922142199</v>
+        <v>2552.4831922142203</v>
       </c>
       <c r="Y4" s="2">
         <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>253344.18164739819</v>
+        <v>2533.4418164739818</v>
       </c>
       <c r="Z4" s="2">
         <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>251440.04407337433</v>
+        <v>2514.4004407337425</v>
       </c>
       <c r="AA4" s="2">
         <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>249536.09277772781</v>
+        <v>2495.3609277772784</v>
       </c>
       <c r="AB4" s="2">
         <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>247631.95520370395</v>
+        <v>2476.3195520370391</v>
       </c>
       <c r="AC4" s="2">
         <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>245727.81762968007</v>
+        <v>2457.2781762968007</v>
       </c>
       <c r="AD4" s="2">
         <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>243823.86633403358</v>
+        <v>2438.2386633403353</v>
       </c>
       <c r="AE4" s="2">
         <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>241919.72876000969</v>
+        <v>2419.1972876000968</v>
       </c>
       <c r="AF4" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>240015.5911859858</v>
+        <v>2400.155911859858</v>
       </c>
       <c r="AG4" s="5">
         <v>240015.5911859858</v>
@@ -2123,7 +2127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75013386-D65F-4F42-82AA-9369535BE7EB}">
   <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
@@ -2261,127 +2265,127 @@
       </c>
       <c r="B2" s="2">
         <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>234285.20941424163</v>
+        <v>2342.8520941424163</v>
       </c>
       <c r="C2" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>234285.20941424163</v>
+        <v>2342.8520941424163</v>
       </c>
       <c r="D2" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>263326.05887093366</v>
+        <v>2633.2605887093355</v>
       </c>
       <c r="E2" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>189436.67818917381</v>
+        <v>1894.3667818917381</v>
       </c>
       <c r="F2" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>178803.26491503586</v>
+        <v>1788.0326491503583</v>
       </c>
       <c r="G2" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>169706.26472766226</v>
+        <v>1697.0626472766226</v>
       </c>
       <c r="H2" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>162502.88001632856</v>
+        <v>1625.0288001632855</v>
       </c>
       <c r="I2" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>155299.49530499487</v>
+        <v>1552.9949530499487</v>
       </c>
       <c r="J2" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>148096.11059366117</v>
+        <v>1480.9611059366118</v>
       </c>
       <c r="K2" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>140892.43067374133</v>
+        <v>1408.924306737413</v>
       </c>
       <c r="L2" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>133691.40763109707</v>
+        <v>1336.9140763109706</v>
       </c>
       <c r="M2" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>131347.30385254926</v>
+        <v>1313.4730385254927</v>
       </c>
       <c r="N2" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>129003.20007400145</v>
+        <v>1290.0320007400142</v>
       </c>
       <c r="O2" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>126656.88223105727</v>
+        <v>1266.5688223105731</v>
       </c>
       <c r="P2" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>124312.92605680255</v>
+        <v>1243.1292605680255</v>
       </c>
       <c r="Q2" s="2">
         <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>121971.33155123725</v>
+        <v>1219.7133155123727</v>
       </c>
       <c r="R2" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>119624.86610400002</v>
+        <v>1196.2486610400003</v>
       </c>
       <c r="S2" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>117280.90992974529</v>
+        <v>1172.8090992974528</v>
       </c>
       <c r="T2" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>114936.80615119748</v>
+        <v>1149.3680615119749</v>
       </c>
       <c r="U2" s="2">
         <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>112592.84997694279</v>
+        <v>1125.9284997694278</v>
       </c>
       <c r="V2" s="2">
         <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>110246.38452970554</v>
+        <v>1102.4638452970551</v>
       </c>
       <c r="W2" s="2">
         <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>107902.42835545079</v>
+        <v>1079.024283554508</v>
       </c>
       <c r="X2" s="2">
         <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>105560.8338498855</v>
+        <v>1055.6083384988551</v>
       </c>
       <c r="Y2" s="2">
         <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>103216.87767563078</v>
+        <v>1032.1687767563078</v>
       </c>
       <c r="Z2" s="2">
         <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>100870.41222839357</v>
+        <v>1008.7041222839354</v>
       </c>
       <c r="AA2" s="2">
         <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>98526.308449845747</v>
+        <v>985.26308449845726</v>
       </c>
       <c r="AB2" s="2">
         <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>96182.352275591023</v>
+        <v>961.82352275591006</v>
       </c>
       <c r="AC2" s="2">
         <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>93838.248497043183</v>
+        <v>938.38248497043185</v>
       </c>
       <c r="AD2" s="2">
         <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>91491.783049805977</v>
+        <v>914.91783049805963</v>
       </c>
       <c r="AE2" s="2">
         <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>89147.826875551254</v>
+        <v>891.47826875551254</v>
       </c>
       <c r="AF2" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>86806.379974279029</v>
+        <v>868.06379974279025</v>
       </c>
       <c r="AG2" s="5">
         <v>86806.379974279029</v>
@@ -2402,127 +2406,127 @@
       </c>
       <c r="B3" s="2">
         <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>234285.20941424163</v>
+        <v>2342.8520941424163</v>
       </c>
       <c r="C3" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>234285.20941424163</v>
+        <v>2342.8520941424163</v>
       </c>
       <c r="D3" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>263326.05887093366</v>
+        <v>2633.2605887093355</v>
       </c>
       <c r="E3" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>253215.46000291719</v>
+        <v>2532.1546000291723</v>
       </c>
       <c r="F3" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>241890.22540707077</v>
+        <v>2418.9022540707074</v>
       </c>
       <c r="G3" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>211985.89083580763</v>
+        <v>2119.8589083580764</v>
       </c>
       <c r="H3" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>205128.34298318165</v>
+        <v>2051.2834298318171</v>
       </c>
       <c r="I3" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>198270.35231767647</v>
+        <v>1982.7035231767647</v>
       </c>
       <c r="J3" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>191411.77123499889</v>
+        <v>1914.1177123499886</v>
       </c>
       <c r="K3" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>184552.59973514895</v>
+        <v>1845.5259973514894</v>
       </c>
       <c r="L3" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>177692.69021383356</v>
+        <v>1776.9269021383359</v>
       </c>
       <c r="M3" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>174952.12130404849</v>
+        <v>1749.5212130404846</v>
       </c>
       <c r="N3" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>172211.69999855643</v>
+        <v>1722.1169999855647</v>
       </c>
       <c r="O3" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>169471.27869306441</v>
+        <v>1694.7127869306441</v>
       </c>
       <c r="P3" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>166730.85738757241</v>
+        <v>1667.3085738757238</v>
       </c>
       <c r="Q3" s="2">
         <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>163990.73129066662</v>
+        <v>1639.9073129066658</v>
       </c>
       <c r="R3" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>161250.60519376074</v>
+        <v>1612.5060519376073</v>
       </c>
       <c r="S3" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>158510.47909685489</v>
+        <v>1585.104790968549</v>
       </c>
       <c r="T3" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>155770.64820853525</v>
+        <v>1557.7064820853525</v>
       </c>
       <c r="U3" s="2">
         <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>153030.81732021557</v>
+        <v>1530.3081732021558</v>
       </c>
       <c r="V3" s="2">
         <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>150291.13403618903</v>
+        <v>1502.9113403618903</v>
       </c>
       <c r="W3" s="2">
         <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>147551.59835645556</v>
+        <v>1475.5159835645557</v>
       </c>
       <c r="X3" s="2">
         <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>144812.21028101514</v>
+        <v>1448.1221028101518</v>
       </c>
       <c r="Y3" s="2">
         <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>142072.96980986785</v>
+        <v>1420.7296980986785</v>
       </c>
       <c r="Z3" s="2">
         <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>139333.72933872056</v>
+        <v>1393.3372933872054</v>
       </c>
       <c r="AA3" s="2">
         <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>136594.78407615941</v>
+        <v>1365.9478407615943</v>
       </c>
       <c r="AB3" s="2">
         <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>133855.8388135983</v>
+        <v>1338.5583881359833</v>
       </c>
       <c r="AC3" s="2">
         <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>131117.18875962336</v>
+        <v>1311.1718875962335</v>
       </c>
       <c r="AD3" s="2">
         <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>128378.68630994151</v>
+        <v>1283.7868630994151</v>
       </c>
       <c r="AE3" s="2">
         <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>125640.33146455274</v>
+        <v>1256.4033146455272</v>
       </c>
       <c r="AF3" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>122902.12422345704</v>
+        <v>1229.0212422345703</v>
       </c>
       <c r="AG3" s="5">
         <v>122902.12422345704</v>
@@ -2543,127 +2547,127 @@
       </c>
       <c r="B4" s="2">
         <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>234285.20941424163</v>
+        <v>2342.8520941424163</v>
       </c>
       <c r="C4" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>234285.20941424163</v>
+        <v>2342.8520941424163</v>
       </c>
       <c r="D4" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>263326.05887093366</v>
+        <v>2633.2605887093355</v>
       </c>
       <c r="E4" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>273079.75055826054</v>
+        <v>2730.7975055826059</v>
       </c>
       <c r="F4" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>275029.30806138122</v>
+        <v>2750.2930806138129</v>
       </c>
       <c r="G4" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>271127.09336498502</v>
+        <v>2711.2709336498501</v>
       </c>
       <c r="H4" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>260973.39404338662</v>
+        <v>2609.7339404338659</v>
       </c>
       <c r="I4" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>250819.8423260813</v>
+        <v>2508.1984232608129</v>
       </c>
       <c r="J4" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>240666.43821306911</v>
+        <v>2406.6643821306911</v>
       </c>
       <c r="K4" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>230513.18170434996</v>
+        <v>2305.1318170434997</v>
       </c>
       <c r="L4" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>220360.07279992398</v>
+        <v>2203.60072799924</v>
       </c>
       <c r="M4" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>218851.4093202604</v>
+        <v>2188.5140932026043</v>
       </c>
       <c r="N4" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>217342.59823630378</v>
+        <v>2173.4259823630373</v>
       </c>
       <c r="O4" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>215833.7871523471</v>
+        <v>2158.3378715234708</v>
       </c>
       <c r="P4" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>214325.12367268346</v>
+        <v>2143.251236726835</v>
       </c>
       <c r="Q4" s="2">
         <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>212816.31258872684</v>
+        <v>2128.1631258872685</v>
       </c>
       <c r="R4" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>211307.50150477022</v>
+        <v>2113.0750150477015</v>
       </c>
       <c r="S4" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>209798.83802510661</v>
+        <v>2097.9883802510658</v>
       </c>
       <c r="T4" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>208290.02694114993</v>
+        <v>2082.9002694114993</v>
       </c>
       <c r="U4" s="2">
         <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>206781.36346148638</v>
+        <v>2067.813634614864</v>
       </c>
       <c r="V4" s="2">
         <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>205272.5523775297</v>
+        <v>2052.725523775297</v>
       </c>
       <c r="W4" s="2">
         <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>203763.74129357305</v>
+        <v>2037.6374129357305</v>
       </c>
       <c r="X4" s="2">
         <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>202255.07781390948</v>
+        <v>2022.5507781390952</v>
       </c>
       <c r="Y4" s="2">
         <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>200746.26672995285</v>
+        <v>2007.462667299528</v>
       </c>
       <c r="Z4" s="2">
         <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>199237.45564599618</v>
+        <v>1992.3745564599612</v>
       </c>
       <c r="AA4" s="2">
         <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>197728.79216633263</v>
+        <v>1977.287921663326</v>
       </c>
       <c r="AB4" s="2">
         <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>196219.98108237592</v>
+        <v>1962.1998108237592</v>
       </c>
       <c r="AC4" s="2">
         <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>194711.16999841927</v>
+        <v>1947.1116999841927</v>
       </c>
       <c r="AD4" s="2">
         <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>193202.50651875572</v>
+        <v>1932.0250651875569</v>
       </c>
       <c r="AE4" s="2">
         <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>191693.69543479901</v>
+        <v>1916.93695434799</v>
       </c>
       <c r="AF4" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>190184.88435084239</v>
+        <v>1901.8488435084237</v>
       </c>
       <c r="AG4" s="5">
         <v>190184.88435084239</v>

--- a/data/CS5/Shared ESS/CS5_ESS.xlsx
+++ b/data/CS5/Shared ESS/CS5_ESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9638EB6-BED1-43BA-998A-16AA39C55B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B630E232-ABE5-42B4-A459-CF93BD2F7D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9960" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="81" r:id="rId1"/>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7614B8E9-E001-4C19-AEEE-8FBC4B48A529}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,20 +526,16 @@
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="4">
-        <f>C2*100</f>
-        <v>108.19000000000001</v>
-      </c>
-      <c r="C2">
         <v>1.0819000000000001</v>
       </c>
     </row>
@@ -1167,127 +1163,127 @@
       </c>
       <c r="B2" s="3">
         <f>'Investment Cost NREL, USD'!B2/'Conversion rate'!$B$2</f>
-        <v>14.670967741935481</v>
+        <v>1467.0967741935483</v>
       </c>
       <c r="C2" s="2">
         <f>'Investment Cost NREL, USD'!C2/'Conversion rate'!$B$2</f>
-        <v>14.670967741935481</v>
+        <v>1467.0967741935483</v>
       </c>
       <c r="D2" s="2">
         <f>'Investment Cost NREL, USD'!D2/'Conversion rate'!$B$2</f>
-        <v>16.489509196783434</v>
+        <v>1648.9509196783436</v>
       </c>
       <c r="E2" s="2">
         <f>'Investment Cost NREL, USD'!E2/'Conversion rate'!$B$2</f>
-        <v>11.862547370366947</v>
+        <v>1186.2547370366947</v>
       </c>
       <c r="F2" s="2">
         <f>'Investment Cost NREL, USD'!F2/'Conversion rate'!$B$2</f>
-        <v>11.196681763564099</v>
+        <v>1119.66817635641</v>
       </c>
       <c r="G2" s="2">
         <f>'Investment Cost NREL, USD'!G2/'Conversion rate'!$B$2</f>
-        <v>10.627026527405489</v>
+        <v>1062.702652740549</v>
       </c>
       <c r="H2" s="2">
         <f>'Investment Cost NREL, USD'!H2/'Conversion rate'!$B$2</f>
-        <v>10.175949718088546</v>
+        <v>1017.5949718088547</v>
       </c>
       <c r="I2" s="2">
         <f>'Investment Cost NREL, USD'!I2/'Conversion rate'!$B$2</f>
-        <v>9.724872908771605</v>
+        <v>972.48729087716049</v>
       </c>
       <c r="J2" s="2">
         <f>'Investment Cost NREL, USD'!J2/'Conversion rate'!$B$2</f>
-        <v>9.2737960994546622</v>
+        <v>927.3796099454662</v>
       </c>
       <c r="K2" s="2">
         <f>'Investment Cost NREL, USD'!K2/'Conversion rate'!$B$2</f>
-        <v>8.8227008041408617</v>
+        <v>882.27008041408624</v>
       </c>
       <c r="L2" s="2">
         <f>'Investment Cost NREL, USD'!L2/'Conversion rate'!$B$2</f>
-        <v>8.3717718827987788</v>
+        <v>837.1771882798779</v>
       </c>
       <c r="M2" s="2">
         <f>'Investment Cost NREL, USD'!M2/'Conversion rate'!$B$2</f>
-        <v>8.2249838247527496</v>
+        <v>822.49838247527487</v>
       </c>
       <c r="N2" s="2">
         <f>'Investment Cost NREL, USD'!N2/'Conversion rate'!$B$2</f>
-        <v>8.0781957667067186</v>
+        <v>807.81957667067195</v>
       </c>
       <c r="O2" s="2">
         <f>'Investment Cost NREL, USD'!O2/'Conversion rate'!$B$2</f>
-        <v>7.9312690636842582</v>
+        <v>793.12690636842581</v>
       </c>
       <c r="P2" s="2">
         <f>'Investment Cost NREL, USD'!P2/'Conversion rate'!$B$2</f>
-        <v>7.7844902486366561</v>
+        <v>778.44902486366561</v>
       </c>
       <c r="Q2" s="2">
         <f>'Investment Cost NREL, USD'!Q2/'Conversion rate'!$B$2</f>
-        <v>7.6378593215639148</v>
+        <v>763.78593215639148</v>
       </c>
       <c r="R2" s="2">
         <f>'Investment Cost NREL, USD'!R2/'Conversion rate'!$B$2</f>
-        <v>7.4909233755430256</v>
+        <v>749.0923375543025</v>
       </c>
       <c r="S2" s="2">
         <f>'Investment Cost NREL, USD'!S2/'Conversion rate'!$B$2</f>
-        <v>7.3441445604954234</v>
+        <v>734.41445604954242</v>
       </c>
       <c r="T2" s="2">
         <f>'Investment Cost NREL, USD'!T2/'Conversion rate'!$B$2</f>
-        <v>7.1973565024493942</v>
+        <v>719.73565024493939</v>
       </c>
       <c r="U2" s="2">
         <f>'Investment Cost NREL, USD'!U2/'Conversion rate'!$B$2</f>
-        <v>7.0505776874017929</v>
+        <v>705.05776874017931</v>
       </c>
       <c r="V2" s="2">
         <f>'Investment Cost NREL, USD'!V2/'Conversion rate'!$B$2</f>
-        <v>6.9036417413809028</v>
+        <v>690.36417413809033</v>
       </c>
       <c r="W2" s="2">
         <f>'Investment Cost NREL, USD'!W2/'Conversion rate'!$B$2</f>
-        <v>6.7568629263333015</v>
+        <v>675.68629263333014</v>
       </c>
       <c r="X2" s="2">
         <f>'Investment Cost NREL, USD'!X2/'Conversion rate'!$B$2</f>
-        <v>6.6102319992605585</v>
+        <v>661.0231999260559</v>
       </c>
       <c r="Y2" s="2">
         <f>'Investment Cost NREL, USD'!Y2/'Conversion rate'!$B$2</f>
-        <v>6.4634531842129572</v>
+        <v>646.34531842129581</v>
       </c>
       <c r="Z2" s="2">
         <f>'Investment Cost NREL, USD'!Z2/'Conversion rate'!$B$2</f>
-        <v>6.3165172381920689</v>
+        <v>631.65172381920695</v>
       </c>
       <c r="AA2" s="2">
         <f>'Investment Cost NREL, USD'!AA2/'Conversion rate'!$B$2</f>
-        <v>6.1697291801460388</v>
+        <v>616.97291801460392</v>
       </c>
       <c r="AB2" s="2">
         <f>'Investment Cost NREL, USD'!AB2/'Conversion rate'!$B$2</f>
-        <v>6.0229503650984375</v>
+        <v>602.29503650984384</v>
       </c>
       <c r="AC2" s="2">
         <f>'Investment Cost NREL, USD'!AC2/'Conversion rate'!$B$2</f>
-        <v>5.8761623070524065</v>
+        <v>587.6162307052407</v>
       </c>
       <c r="AD2" s="2">
         <f>'Investment Cost NREL, USD'!AD2/'Conversion rate'!$B$2</f>
-        <v>5.7292263610315182</v>
+        <v>572.92263610315183</v>
       </c>
       <c r="AE2" s="2">
         <f>'Investment Cost NREL, USD'!AE2/'Conversion rate'!$B$2</f>
-        <v>5.5824475459839169</v>
+        <v>558.24475459839175</v>
       </c>
       <c r="AF2" s="2">
         <f>'Investment Cost NREL, USD'!AF2/'Conversion rate'!$B$2</f>
-        <v>5.4358258619096027</v>
+        <v>543.58258619096023</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
@@ -1296,127 +1292,127 @@
       </c>
       <c r="B3" s="3">
         <f>'Investment Cost NREL, USD'!B3/'Conversion rate'!$B$2</f>
-        <v>14.670967741935481</v>
+        <v>1467.0967741935483</v>
       </c>
       <c r="C3" s="2">
         <f>'Investment Cost NREL, USD'!C3/'Conversion rate'!$B$2</f>
-        <v>14.670967741935481</v>
+        <v>1467.0967741935483</v>
       </c>
       <c r="D3" s="2">
         <f>'Investment Cost NREL, USD'!D3/'Conversion rate'!$B$2</f>
-        <v>16.489509196783434</v>
+        <v>1648.9509196783436</v>
       </c>
       <c r="E3" s="2">
         <f>'Investment Cost NREL, USD'!E3/'Conversion rate'!$B$2</f>
-        <v>15.856382290415008</v>
+        <v>1585.6382290415008</v>
       </c>
       <c r="F3" s="2">
         <f>'Investment Cost NREL, USD'!F3/'Conversion rate'!$B$2</f>
-        <v>15.147194749976892</v>
+        <v>1514.7194749976893</v>
       </c>
       <c r="G3" s="2">
         <f>'Investment Cost NREL, USD'!G3/'Conversion rate'!$B$2</f>
-        <v>13.274581754321099</v>
+        <v>1327.45817543211</v>
       </c>
       <c r="H3" s="2">
         <f>'Investment Cost NREL, USD'!H3/'Conversion rate'!$B$2</f>
-        <v>12.845161290322579</v>
+        <v>1284.516129032258</v>
       </c>
       <c r="I3" s="2">
         <f>'Investment Cost NREL, USD'!I3/'Conversion rate'!$B$2</f>
-        <v>12.415713097328773</v>
+        <v>1241.5713097328774</v>
       </c>
       <c r="J3" s="2">
         <f>'Investment Cost NREL, USD'!J3/'Conversion rate'!$B$2</f>
-        <v>11.986227932341249</v>
+        <v>1198.6227932341251</v>
       </c>
       <c r="K3" s="2">
         <f>'Investment Cost NREL, USD'!K3/'Conversion rate'!$B$2</f>
-        <v>11.556705795360013</v>
+        <v>1155.6705795360012</v>
       </c>
       <c r="L3" s="2">
         <f>'Investment Cost NREL, USD'!L3/'Conversion rate'!$B$2</f>
-        <v>11.127137443386633</v>
+        <v>1112.7137443386634</v>
       </c>
       <c r="M3" s="2">
         <f>'Investment Cost NREL, USD'!M3/'Conversion rate'!$B$2</f>
-        <v>10.955522691561141</v>
+        <v>1095.5522691561141</v>
       </c>
       <c r="N3" s="2">
         <f>'Investment Cost NREL, USD'!N3/'Conversion rate'!$B$2</f>
-        <v>10.783917182734077</v>
+        <v>1078.3917182734078</v>
       </c>
       <c r="O3" s="2">
         <f>'Investment Cost NREL, USD'!O3/'Conversion rate'!$B$2</f>
-        <v>10.612311673907014</v>
+        <v>1061.2311673907013</v>
       </c>
       <c r="P3" s="2">
         <f>'Investment Cost NREL, USD'!P3/'Conversion rate'!$B$2</f>
-        <v>10.44070616507995</v>
+        <v>1044.0706165079951</v>
       </c>
       <c r="Q3" s="2">
         <f>'Investment Cost NREL, USD'!Q3/'Conversion rate'!$B$2</f>
-        <v>10.269119142249746</v>
+        <v>1026.9119142249747</v>
       </c>
       <c r="R3" s="2">
         <f>'Investment Cost NREL, USD'!R3/'Conversion rate'!$B$2</f>
-        <v>10.097532119419538</v>
+        <v>1009.7532119419539</v>
       </c>
       <c r="S3" s="2">
         <f>'Investment Cost NREL, USD'!S3/'Conversion rate'!$B$2</f>
-        <v>9.9259450965893326</v>
+        <v>992.59450965893325</v>
       </c>
       <c r="T3" s="2">
         <f>'Investment Cost NREL, USD'!T3/'Conversion rate'!$B$2</f>
-        <v>9.7543765597559844</v>
+        <v>975.43765597559843</v>
       </c>
       <c r="U3" s="2">
         <f>'Investment Cost NREL, USD'!U3/'Conversion rate'!$B$2</f>
-        <v>9.5828080229226344</v>
+        <v>958.28080229226339</v>
       </c>
       <c r="V3" s="2">
         <f>'Investment Cost NREL, USD'!V3/'Conversion rate'!$B$2</f>
-        <v>9.4112487290877151</v>
+        <v>941.12487290877152</v>
       </c>
       <c r="W3" s="2">
         <f>'Investment Cost NREL, USD'!W3/'Conversion rate'!$B$2</f>
-        <v>9.2396986782512247</v>
+        <v>923.96986782512238</v>
       </c>
       <c r="X3" s="2">
         <f>'Investment Cost NREL, USD'!X3/'Conversion rate'!$B$2</f>
-        <v>9.0681578704131613</v>
+        <v>906.81578704131607</v>
       </c>
       <c r="Y3" s="2">
         <f>'Investment Cost NREL, USD'!Y3/'Conversion rate'!$B$2</f>
-        <v>8.8966263055735268</v>
+        <v>889.66263055735271</v>
       </c>
       <c r="Z3" s="2">
         <f>'Investment Cost NREL, USD'!Z3/'Conversion rate'!$B$2</f>
-        <v>8.7250947407338924</v>
+        <v>872.50947407338936</v>
       </c>
       <c r="AA3" s="2">
         <f>'Investment Cost NREL, USD'!AA3/'Conversion rate'!$B$2</f>
-        <v>8.5535816618911173</v>
+        <v>855.35816618911167</v>
       </c>
       <c r="AB3" s="2">
         <f>'Investment Cost NREL, USD'!AB3/'Conversion rate'!$B$2</f>
-        <v>8.3820685830483406</v>
+        <v>838.20685830483399</v>
       </c>
       <c r="AC3" s="2">
         <f>'Investment Cost NREL, USD'!AC3/'Conversion rate'!$B$2</f>
-        <v>8.2105739902024215</v>
+        <v>821.05739902024209</v>
       </c>
       <c r="AD3" s="2">
         <f>'Investment Cost NREL, USD'!AD3/'Conversion rate'!$B$2</f>
-        <v>8.0390886403549313</v>
+        <v>803.90886403549302</v>
       </c>
       <c r="AE3" s="2">
         <f>'Investment Cost NREL, USD'!AE3/'Conversion rate'!$B$2</f>
-        <v>7.8676125335058682</v>
+        <v>786.76125335058691</v>
       </c>
       <c r="AF3" s="2">
         <f>'Investment Cost NREL, USD'!AF3/'Conversion rate'!$B$2</f>
-        <v>7.6961456696552348</v>
+        <v>769.61456696552352</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
@@ -1425,127 +1421,127 @@
       </c>
       <c r="B4" s="3">
         <f>'Investment Cost NREL, USD'!B4/'Conversion rate'!$B$2</f>
-        <v>14.670967741935481</v>
+        <v>1467.0967741935483</v>
       </c>
       <c r="C4" s="2">
         <f>'Investment Cost NREL, USD'!C4/'Conversion rate'!$B$2</f>
-        <v>14.670967741935481</v>
+        <v>1467.0967741935483</v>
       </c>
       <c r="D4" s="2">
         <f>'Investment Cost NREL, USD'!D4/'Conversion rate'!$B$2</f>
-        <v>16.489509196783434</v>
+        <v>1648.9509196783436</v>
       </c>
       <c r="E4" s="2">
         <f>'Investment Cost NREL, USD'!E4/'Conversion rate'!$B$2</f>
-        <v>17.100286532951287</v>
+        <v>1710.0286532951288</v>
       </c>
       <c r="F4" s="2">
         <f>'Investment Cost NREL, USD'!F4/'Conversion rate'!$B$2</f>
-        <v>17.222368056197428</v>
+        <v>1722.2368056197429</v>
       </c>
       <c r="G4" s="2">
         <f>'Investment Cost NREL, USD'!G4/'Conversion rate'!$B$2</f>
-        <v>16.978010906738145</v>
+        <v>1697.8010906738145</v>
       </c>
       <c r="H4" s="2">
         <f>'Investment Cost NREL, USD'!H4/'Conversion rate'!$B$2</f>
-        <v>16.34218504482854</v>
+        <v>1634.2185044828541</v>
       </c>
       <c r="I4" s="2">
         <f>'Investment Cost NREL, USD'!I4/'Conversion rate'!$B$2</f>
-        <v>15.706368425917365</v>
+        <v>1570.6368425917365</v>
       </c>
       <c r="J4" s="2">
         <f>'Investment Cost NREL, USD'!J4/'Conversion rate'!$B$2</f>
-        <v>15.070561050004619</v>
+        <v>1507.0561050004619</v>
       </c>
       <c r="K4" s="2">
         <f>'Investment Cost NREL, USD'!K4/'Conversion rate'!$B$2</f>
-        <v>14.434762917090302</v>
+        <v>1443.4762917090302</v>
       </c>
       <c r="L4" s="2">
         <f>'Investment Cost NREL, USD'!L4/'Conversion rate'!$B$2</f>
-        <v>13.798974027174415</v>
+        <v>1379.8974027174415</v>
       </c>
       <c r="M4" s="2">
         <f>'Investment Cost NREL, USD'!M4/'Conversion rate'!$B$2</f>
-        <v>13.704501340234771</v>
+        <v>1370.4501340234772</v>
       </c>
       <c r="N4" s="2">
         <f>'Investment Cost NREL, USD'!N4/'Conversion rate'!$B$2</f>
-        <v>13.610019410296699</v>
+        <v>1361.00194102967</v>
       </c>
       <c r="O4" s="2">
         <f>'Investment Cost NREL, USD'!O4/'Conversion rate'!$B$2</f>
-        <v>13.515537480358628</v>
+        <v>1351.5537480358628</v>
       </c>
       <c r="P4" s="2">
         <f>'Investment Cost NREL, USD'!P4/'Conversion rate'!$B$2</f>
-        <v>13.421064793418985</v>
+        <v>1342.1064793418984</v>
       </c>
       <c r="Q4" s="2">
         <f>'Investment Cost NREL, USD'!Q4/'Conversion rate'!$B$2</f>
-        <v>13.326582863480914</v>
+        <v>1332.6582863480912</v>
       </c>
       <c r="R4" s="2">
         <f>'Investment Cost NREL, USD'!R4/'Conversion rate'!$B$2</f>
-        <v>13.232100933542839</v>
+        <v>1323.210093354284</v>
       </c>
       <c r="S4" s="2">
         <f>'Investment Cost NREL, USD'!S4/'Conversion rate'!$B$2</f>
-        <v>13.137628246603196</v>
+        <v>1313.7628246603197</v>
       </c>
       <c r="T4" s="2">
         <f>'Investment Cost NREL, USD'!T4/'Conversion rate'!$B$2</f>
-        <v>13.043146316665124</v>
+        <v>1304.3146316665125</v>
       </c>
       <c r="U4" s="2">
         <f>'Investment Cost NREL, USD'!U4/'Conversion rate'!$B$2</f>
-        <v>12.94867362972548</v>
+        <v>1294.8673629725481</v>
       </c>
       <c r="V4" s="2">
         <f>'Investment Cost NREL, USD'!V4/'Conversion rate'!$B$2</f>
-        <v>12.854191699787409</v>
+        <v>1285.4191699787409</v>
       </c>
       <c r="W4" s="2">
         <f>'Investment Cost NREL, USD'!W4/'Conversion rate'!$B$2</f>
-        <v>12.759709769849337</v>
+        <v>1275.9709769849337</v>
       </c>
       <c r="X4" s="2">
         <f>'Investment Cost NREL, USD'!X4/'Conversion rate'!$B$2</f>
-        <v>12.665237082909695</v>
+        <v>1266.5237082909694</v>
       </c>
       <c r="Y4" s="2">
         <f>'Investment Cost NREL, USD'!Y4/'Conversion rate'!$B$2</f>
-        <v>12.570755152971623</v>
+        <v>1257.0755152971624</v>
       </c>
       <c r="Z4" s="2">
         <f>'Investment Cost NREL, USD'!Z4/'Conversion rate'!$B$2</f>
-        <v>12.47627322303355</v>
+        <v>1247.6273223033552</v>
       </c>
       <c r="AA4" s="2">
         <f>'Investment Cost NREL, USD'!AA4/'Conversion rate'!$B$2</f>
-        <v>12.381800536093907</v>
+        <v>1238.1800536093908</v>
       </c>
       <c r="AB4" s="2">
         <f>'Investment Cost NREL, USD'!AB4/'Conversion rate'!$B$2</f>
-        <v>12.287318606155836</v>
+        <v>1228.7318606155836</v>
       </c>
       <c r="AC4" s="2">
         <f>'Investment Cost NREL, USD'!AC4/'Conversion rate'!$B$2</f>
-        <v>12.192836676217764</v>
+        <v>1219.2836676217764</v>
       </c>
       <c r="AD4" s="2">
         <f>'Investment Cost NREL, USD'!AD4/'Conversion rate'!$B$2</f>
-        <v>12.09836398927812</v>
+        <v>1209.8363989278121</v>
       </c>
       <c r="AE4" s="2">
         <f>'Investment Cost NREL, USD'!AE4/'Conversion rate'!$B$2</f>
-        <v>12.003882059340048</v>
+        <v>1200.3882059340049</v>
       </c>
       <c r="AF4" s="2">
         <f>'Investment Cost NREL, USD'!AF4/'Conversion rate'!$B$2</f>
-        <v>11.909400129401977</v>
+        <v>1190.9400129401977</v>
       </c>
     </row>
   </sheetData>
@@ -1695,127 +1691,127 @@
       </c>
       <c r="B2" s="2">
         <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2956.7072712233994</v>
+        <v>295670.72712234</v>
       </c>
       <c r="C2" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2956.7072712233994</v>
+        <v>295670.72712234</v>
       </c>
       <c r="D2" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>3323.206253236754</v>
+        <v>332320.6253236754</v>
       </c>
       <c r="E2" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2390.7134609082568</v>
+        <v>239071.34609082571</v>
       </c>
       <c r="F2" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2256.5185178123056</v>
+        <v>225651.85178123059</v>
       </c>
       <c r="G2" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2141.7132910223763</v>
+        <v>214171.32910223768</v>
       </c>
       <c r="H2" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2050.8057172721187</v>
+        <v>205080.57172721188</v>
       </c>
       <c r="I2" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1959.8981435218611</v>
+        <v>195989.81435218608</v>
       </c>
       <c r="J2" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1868.9905697716028</v>
+        <v>186899.05697716027</v>
       </c>
       <c r="K2" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1778.079270453796</v>
+        <v>177807.92704537965</v>
       </c>
       <c r="L2" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1687.2015012439263</v>
+        <v>168720.15012439265</v>
       </c>
       <c r="M2" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1657.6186321252869</v>
+        <v>165761.86321252867</v>
       </c>
       <c r="N2" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1628.0357630066471</v>
+        <v>162803.57630066472</v>
       </c>
       <c r="O2" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1598.4249521313941</v>
+        <v>159842.49521313942</v>
       </c>
       <c r="P2" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1568.8439457965289</v>
+        <v>156884.39457965287</v>
       </c>
       <c r="Q2" s="2">
         <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1539.2927440020514</v>
+        <v>153929.27440020515</v>
       </c>
       <c r="R2" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1509.6800703430242</v>
+        <v>150968.00703430243</v>
       </c>
       <c r="S2" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1480.0990640081588</v>
+        <v>148009.90640081587</v>
       </c>
       <c r="T2" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1450.5161948895195</v>
+        <v>145051.61948895192</v>
       </c>
       <c r="U2" s="2">
         <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1420.9351885546541</v>
+        <v>142093.51885546543</v>
       </c>
       <c r="V2" s="2">
         <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1391.3225148956267</v>
+        <v>139132.25148956268</v>
       </c>
       <c r="W2" s="2">
         <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1361.7415085607613</v>
+        <v>136174.15085607613</v>
       </c>
       <c r="X2" s="2">
         <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1332.1903067662838</v>
+        <v>133219.03067662838</v>
       </c>
       <c r="Y2" s="2">
         <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1302.6093004314187</v>
+        <v>130260.93004314188</v>
       </c>
       <c r="Z2" s="2">
         <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1272.9966267723914</v>
+        <v>127299.66267723915</v>
       </c>
       <c r="AA2" s="2">
         <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1243.4137576537519</v>
+        <v>124341.3757653752</v>
       </c>
       <c r="AB2" s="2">
         <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1213.8327513188867</v>
+        <v>121383.2751318887</v>
       </c>
       <c r="AC2" s="2">
         <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1184.2498822002469</v>
+        <v>118424.98822002472</v>
       </c>
       <c r="AD2" s="2">
         <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1154.6372085412199</v>
+        <v>115463.72085412197</v>
       </c>
       <c r="AE2" s="2">
         <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1125.0562022063546</v>
+        <v>112505.62022063546</v>
       </c>
       <c r="AF2" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1095.506863195651</v>
+        <v>109550.68631956511</v>
       </c>
       <c r="AG2" s="5">
         <v>109550.68631956511</v>
@@ -1836,127 +1832,127 @@
       </c>
       <c r="B3" s="2">
         <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2956.7072712233994</v>
+        <v>295670.72712234</v>
       </c>
       <c r="C3" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2956.7072712233994</v>
+        <v>295670.72712234</v>
       </c>
       <c r="D3" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>3323.206253236754</v>
+        <v>332320.6253236754</v>
       </c>
       <c r="E3" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>3195.6092902691471</v>
+        <v>319560.92902691476</v>
       </c>
       <c r="F3" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>3052.6834796233538</v>
+        <v>305268.34796233533</v>
       </c>
       <c r="G3" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2675.287212530719</v>
+        <v>267528.72125307191</v>
       </c>
       <c r="H3" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2588.7441411634954</v>
+        <v>258874.41411634957</v>
       </c>
       <c r="I3" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2502.1954814449496</v>
+        <v>250219.54814449497</v>
       </c>
       <c r="J3" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2415.6393705913065</v>
+        <v>241563.93705913064</v>
       </c>
       <c r="K3" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2329.0758086025667</v>
+        <v>232907.58086025662</v>
       </c>
       <c r="L3" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2242.5029326949552</v>
+        <v>224250.2932694956</v>
       </c>
       <c r="M3" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2207.9166263587185</v>
+        <v>220791.66263587188</v>
       </c>
       <c r="N3" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2173.3321828062558</v>
+        <v>217333.21828062556</v>
       </c>
       <c r="O3" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2138.747739253793</v>
+        <v>213874.77392537927</v>
       </c>
       <c r="P3" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2104.1632957013303</v>
+        <v>210416.32957013301</v>
       </c>
       <c r="Q3" s="2">
         <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2069.5825777164164</v>
+        <v>206958.25777164166</v>
       </c>
       <c r="R3" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2035.0018597315016</v>
+        <v>203500.18597315016</v>
       </c>
       <c r="S3" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2000.4211417465872</v>
+        <v>200042.11417465872</v>
       </c>
       <c r="T3" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1965.8441493292219</v>
+        <v>196584.41493292214</v>
       </c>
       <c r="U3" s="2">
         <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1931.2671569118556</v>
+        <v>193126.71569118553</v>
       </c>
       <c r="V3" s="2">
         <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1896.6920272782638</v>
+        <v>189669.20272782643</v>
       </c>
       <c r="W3" s="2">
         <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1862.1187604284471</v>
+        <v>186211.8760428447</v>
       </c>
       <c r="X3" s="2">
         <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1827.5473563624034</v>
+        <v>182754.73563624034</v>
       </c>
       <c r="Y3" s="2">
         <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1792.9778150801349</v>
+        <v>179297.78150801346</v>
       </c>
       <c r="Z3" s="2">
         <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1758.4082737978656</v>
+        <v>175840.82737978661</v>
       </c>
       <c r="AA3" s="2">
         <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1723.8424580831456</v>
+        <v>172384.24580831456</v>
       </c>
       <c r="AB3" s="2">
         <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1689.276642368425</v>
+        <v>168927.66423684251</v>
       </c>
       <c r="AC3" s="2">
         <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1654.7145522212534</v>
+        <v>165471.45522212531</v>
       </c>
       <c r="AD3" s="2">
         <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1620.1543248578555</v>
+        <v>162015.43248578554</v>
       </c>
       <c r="AE3" s="2">
         <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1585.5959602782316</v>
+        <v>158559.59602782319</v>
       </c>
       <c r="AF3" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1551.0394584823825</v>
+        <v>155103.94584823828</v>
       </c>
       <c r="AG3" s="5">
         <v>155103.94584823828</v>
@@ -1977,127 +1973,127 @@
       </c>
       <c r="B4" s="2">
         <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2956.7072712233994</v>
+        <v>295670.72712234</v>
       </c>
       <c r="C4" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2956.7072712233994</v>
+        <v>295670.72712234</v>
       </c>
       <c r="D4" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>3323.206253236754</v>
+        <v>332320.6253236754</v>
       </c>
       <c r="E4" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>3446.2990050382591</v>
+        <v>344629.90050382598</v>
       </c>
       <c r="F4" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>3470.9026531283666</v>
+        <v>347090.26531283662</v>
       </c>
       <c r="G4" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>3421.6562384888935</v>
+        <v>342165.62384888937</v>
       </c>
       <c r="H4" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>3293.5153426592096</v>
+        <v>329351.53426592099</v>
       </c>
       <c r="I4" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>3165.3763096132989</v>
+        <v>316537.63096132991</v>
       </c>
       <c r="J4" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>3037.2391393511634</v>
+        <v>303723.91393511638</v>
       </c>
       <c r="K4" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2909.1038318728024</v>
+        <v>290910.38318728027</v>
       </c>
       <c r="L4" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2780.9703871782158</v>
+        <v>278097.03871782159</v>
       </c>
       <c r="M4" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2761.9308742217509</v>
+        <v>276193.0874221751</v>
       </c>
       <c r="N4" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2742.889498481512</v>
+        <v>274288.94984815124</v>
       </c>
       <c r="O4" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2723.8481227412731</v>
+        <v>272384.81227412733</v>
       </c>
       <c r="P4" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2704.8086097848091</v>
+        <v>270480.86097848084</v>
       </c>
       <c r="Q4" s="2">
         <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2685.7672340445702</v>
+        <v>268576.72340445698</v>
       </c>
       <c r="R4" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2666.7258583043308</v>
+        <v>266672.58583043312</v>
       </c>
       <c r="S4" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2647.6863453478659</v>
+        <v>264768.63453478657</v>
       </c>
       <c r="T4" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2628.644969607627</v>
+        <v>262864.49696076271</v>
       </c>
       <c r="U4" s="2">
         <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2609.6054566511621</v>
+        <v>260960.54566511625</v>
       </c>
       <c r="V4" s="2">
         <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2590.5640809109236</v>
+        <v>259056.40809109237</v>
       </c>
       <c r="W4" s="2">
         <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2571.5227051706852</v>
+        <v>257152.27051706851</v>
       </c>
       <c r="X4" s="2">
         <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2552.4831922142203</v>
+        <v>255248.31922142199</v>
       </c>
       <c r="Y4" s="2">
         <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2533.4418164739818</v>
+        <v>253344.18164739819</v>
       </c>
       <c r="Z4" s="2">
         <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2514.4004407337425</v>
+        <v>251440.04407337433</v>
       </c>
       <c r="AA4" s="2">
         <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2495.3609277772784</v>
+        <v>249536.09277772781</v>
       </c>
       <c r="AB4" s="2">
         <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2476.3195520370391</v>
+        <v>247631.95520370395</v>
       </c>
       <c r="AC4" s="2">
         <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2457.2781762968007</v>
+        <v>245727.81762968007</v>
       </c>
       <c r="AD4" s="2">
         <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2438.2386633403353</v>
+        <v>243823.86633403358</v>
       </c>
       <c r="AE4" s="2">
         <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2419.1972876000968</v>
+        <v>241919.72876000969</v>
       </c>
       <c r="AF4" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2400.155911859858</v>
+        <v>240015.5911859858</v>
       </c>
       <c r="AG4" s="5">
         <v>240015.5911859858</v>
@@ -2127,8 +2123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75013386-D65F-4F42-82AA-9369535BE7EB}">
   <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2265,127 +2261,127 @@
       </c>
       <c r="B2" s="2">
         <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2342.8520941424163</v>
+        <v>234285.20941424163</v>
       </c>
       <c r="C2" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2342.8520941424163</v>
+        <v>234285.20941424163</v>
       </c>
       <c r="D2" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2633.2605887093355</v>
+        <v>263326.05887093366</v>
       </c>
       <c r="E2" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1894.3667818917381</v>
+        <v>189436.67818917381</v>
       </c>
       <c r="F2" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1788.0326491503583</v>
+        <v>178803.26491503586</v>
       </c>
       <c r="G2" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1697.0626472766226</v>
+        <v>169706.26472766226</v>
       </c>
       <c r="H2" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1625.0288001632855</v>
+        <v>162502.88001632856</v>
       </c>
       <c r="I2" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1552.9949530499487</v>
+        <v>155299.49530499487</v>
       </c>
       <c r="J2" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1480.9611059366118</v>
+        <v>148096.11059366117</v>
       </c>
       <c r="K2" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1408.924306737413</v>
+        <v>140892.43067374133</v>
       </c>
       <c r="L2" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1336.9140763109706</v>
+        <v>133691.40763109707</v>
       </c>
       <c r="M2" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1313.4730385254927</v>
+        <v>131347.30385254926</v>
       </c>
       <c r="N2" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1290.0320007400142</v>
+        <v>129003.20007400145</v>
       </c>
       <c r="O2" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1266.5688223105731</v>
+        <v>126656.88223105727</v>
       </c>
       <c r="P2" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1243.1292605680255</v>
+        <v>124312.92605680255</v>
       </c>
       <c r="Q2" s="2">
         <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1219.7133155123727</v>
+        <v>121971.33155123725</v>
       </c>
       <c r="R2" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1196.2486610400003</v>
+        <v>119624.86610400002</v>
       </c>
       <c r="S2" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1172.8090992974528</v>
+        <v>117280.90992974529</v>
       </c>
       <c r="T2" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1149.3680615119749</v>
+        <v>114936.80615119748</v>
       </c>
       <c r="U2" s="2">
         <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1125.9284997694278</v>
+        <v>112592.84997694279</v>
       </c>
       <c r="V2" s="2">
         <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1102.4638452970551</v>
+        <v>110246.38452970554</v>
       </c>
       <c r="W2" s="2">
         <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1079.024283554508</v>
+        <v>107902.42835545079</v>
       </c>
       <c r="X2" s="2">
         <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1055.6083384988551</v>
+        <v>105560.8338498855</v>
       </c>
       <c r="Y2" s="2">
         <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1032.1687767563078</v>
+        <v>103216.87767563078</v>
       </c>
       <c r="Z2" s="2">
         <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1008.7041222839354</v>
+        <v>100870.41222839357</v>
       </c>
       <c r="AA2" s="2">
         <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>985.26308449845726</v>
+        <v>98526.308449845747</v>
       </c>
       <c r="AB2" s="2">
         <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>961.82352275591006</v>
+        <v>96182.352275591023</v>
       </c>
       <c r="AC2" s="2">
         <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>938.38248497043185</v>
+        <v>93838.248497043183</v>
       </c>
       <c r="AD2" s="2">
         <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>914.91783049805963</v>
+        <v>91491.783049805977</v>
       </c>
       <c r="AE2" s="2">
         <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>891.47826875551254</v>
+        <v>89147.826875551254</v>
       </c>
       <c r="AF2" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>868.06379974279025</v>
+        <v>86806.379974279029</v>
       </c>
       <c r="AG2" s="5">
         <v>86806.379974279029</v>
@@ -2406,127 +2402,127 @@
       </c>
       <c r="B3" s="2">
         <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2342.8520941424163</v>
+        <v>234285.20941424163</v>
       </c>
       <c r="C3" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2342.8520941424163</v>
+        <v>234285.20941424163</v>
       </c>
       <c r="D3" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2633.2605887093355</v>
+        <v>263326.05887093366</v>
       </c>
       <c r="E3" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2532.1546000291723</v>
+        <v>253215.46000291719</v>
       </c>
       <c r="F3" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2418.9022540707074</v>
+        <v>241890.22540707077</v>
       </c>
       <c r="G3" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2119.8589083580764</v>
+        <v>211985.89083580763</v>
       </c>
       <c r="H3" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2051.2834298318171</v>
+        <v>205128.34298318165</v>
       </c>
       <c r="I3" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1982.7035231767647</v>
+        <v>198270.35231767647</v>
       </c>
       <c r="J3" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1914.1177123499886</v>
+        <v>191411.77123499889</v>
       </c>
       <c r="K3" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1845.5259973514894</v>
+        <v>184552.59973514895</v>
       </c>
       <c r="L3" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1776.9269021383359</v>
+        <v>177692.69021383356</v>
       </c>
       <c r="M3" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1749.5212130404846</v>
+        <v>174952.12130404849</v>
       </c>
       <c r="N3" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1722.1169999855647</v>
+        <v>172211.69999855643</v>
       </c>
       <c r="O3" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1694.7127869306441</v>
+        <v>169471.27869306441</v>
       </c>
       <c r="P3" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1667.3085738757238</v>
+        <v>166730.85738757241</v>
       </c>
       <c r="Q3" s="2">
         <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1639.9073129066658</v>
+        <v>163990.73129066662</v>
       </c>
       <c r="R3" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1612.5060519376073</v>
+        <v>161250.60519376074</v>
       </c>
       <c r="S3" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1585.104790968549</v>
+        <v>158510.47909685489</v>
       </c>
       <c r="T3" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1557.7064820853525</v>
+        <v>155770.64820853525</v>
       </c>
       <c r="U3" s="2">
         <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1530.3081732021558</v>
+        <v>153030.81732021557</v>
       </c>
       <c r="V3" s="2">
         <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1502.9113403618903</v>
+        <v>150291.13403618903</v>
       </c>
       <c r="W3" s="2">
         <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1475.5159835645557</v>
+        <v>147551.59835645556</v>
       </c>
       <c r="X3" s="2">
         <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1448.1221028101518</v>
+        <v>144812.21028101514</v>
       </c>
       <c r="Y3" s="2">
         <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1420.7296980986785</v>
+        <v>142072.96980986785</v>
       </c>
       <c r="Z3" s="2">
         <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1393.3372933872054</v>
+        <v>139333.72933872056</v>
       </c>
       <c r="AA3" s="2">
         <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1365.9478407615943</v>
+        <v>136594.78407615941</v>
       </c>
       <c r="AB3" s="2">
         <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1338.5583881359833</v>
+        <v>133855.8388135983</v>
       </c>
       <c r="AC3" s="2">
         <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1311.1718875962335</v>
+        <v>131117.18875962336</v>
       </c>
       <c r="AD3" s="2">
         <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1283.7868630994151</v>
+        <v>128378.68630994151</v>
       </c>
       <c r="AE3" s="2">
         <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1256.4033146455272</v>
+        <v>125640.33146455274</v>
       </c>
       <c r="AF3" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1229.0212422345703</v>
+        <v>122902.12422345704</v>
       </c>
       <c r="AG3" s="5">
         <v>122902.12422345704</v>
@@ -2547,127 +2543,127 @@
       </c>
       <c r="B4" s="2">
         <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2342.8520941424163</v>
+        <v>234285.20941424163</v>
       </c>
       <c r="C4" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2342.8520941424163</v>
+        <v>234285.20941424163</v>
       </c>
       <c r="D4" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2633.2605887093355</v>
+        <v>263326.05887093366</v>
       </c>
       <c r="E4" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2730.7975055826059</v>
+        <v>273079.75055826054</v>
       </c>
       <c r="F4" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2750.2930806138129</v>
+        <v>275029.30806138122</v>
       </c>
       <c r="G4" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2711.2709336498501</v>
+        <v>271127.09336498502</v>
       </c>
       <c r="H4" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2609.7339404338659</v>
+        <v>260973.39404338662</v>
       </c>
       <c r="I4" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2508.1984232608129</v>
+        <v>250819.8423260813</v>
       </c>
       <c r="J4" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2406.6643821306911</v>
+        <v>240666.43821306911</v>
       </c>
       <c r="K4" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2305.1318170434997</v>
+        <v>230513.18170434996</v>
       </c>
       <c r="L4" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2203.60072799924</v>
+        <v>220360.07279992398</v>
       </c>
       <c r="M4" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2188.5140932026043</v>
+        <v>218851.4093202604</v>
       </c>
       <c r="N4" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2173.4259823630373</v>
+        <v>217342.59823630378</v>
       </c>
       <c r="O4" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2158.3378715234708</v>
+        <v>215833.7871523471</v>
       </c>
       <c r="P4" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2143.251236726835</v>
+        <v>214325.12367268346</v>
       </c>
       <c r="Q4" s="2">
         <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2128.1631258872685</v>
+        <v>212816.31258872684</v>
       </c>
       <c r="R4" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2113.0750150477015</v>
+        <v>211307.50150477022</v>
       </c>
       <c r="S4" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2097.9883802510658</v>
+        <v>209798.83802510661</v>
       </c>
       <c r="T4" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2082.9002694114993</v>
+        <v>208290.02694114993</v>
       </c>
       <c r="U4" s="2">
         <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2067.813634614864</v>
+        <v>206781.36346148638</v>
       </c>
       <c r="V4" s="2">
         <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2052.725523775297</v>
+        <v>205272.5523775297</v>
       </c>
       <c r="W4" s="2">
         <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2037.6374129357305</v>
+        <v>203763.74129357305</v>
       </c>
       <c r="X4" s="2">
         <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2022.5507781390952</v>
+        <v>202255.07781390948</v>
       </c>
       <c r="Y4" s="2">
         <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>2007.462667299528</v>
+        <v>200746.26672995285</v>
       </c>
       <c r="Z4" s="2">
         <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1992.3745564599612</v>
+        <v>199237.45564599618</v>
       </c>
       <c r="AA4" s="2">
         <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1977.287921663326</v>
+        <v>197728.79216633263</v>
       </c>
       <c r="AB4" s="2">
         <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1962.1998108237592</v>
+        <v>196219.98108237592</v>
       </c>
       <c r="AC4" s="2">
         <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1947.1116999841927</v>
+        <v>194711.16999841927</v>
       </c>
       <c r="AD4" s="2">
         <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1932.0250651875569</v>
+        <v>193202.50651875572</v>
       </c>
       <c r="AE4" s="2">
         <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1916.93695434799</v>
+        <v>191693.69543479901</v>
       </c>
       <c r="AF4" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1901.8488435084237</v>
+        <v>190184.88435084239</v>
       </c>
       <c r="AG4" s="5">
         <v>190184.88435084239</v>
